--- a/CySecAssureTARA/backend/reports/Risk Assessment Report.xlsx
+++ b/CySecAssureTARA/backend/reports/Risk Assessment Report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
   <si>
     <t xml:space="preserve">Risk Assessment Report </t>
   </si>
@@ -640,162 +640,24 @@
   </si>
   <si>
     <t xml:space="preserve">2. Use a web application firewall (WAF)
-3. Enable HTTPS for secure communication
-4. Conduct regular vulnerability assessments</t>
+3. Enable HTTPS for secure communication</t>
   </si>
   <si>
-    <t>Effective</t>
+    <t>Moderate</t>
   </si>
   <si>
     <t>Risk reduction</t>
   </si>
   <si>
     <t xml:space="preserve">1. Apply timely updates and patches
+4. Conduct regular vulnerability assessments
 5. Implement access controls and secure configurations</t>
   </si>
   <si>
-    <t>Rahul</t>
+    <t>abcd</t>
   </si>
   <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>Frontend Code (HTML, CSS, JavaScript)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Cross-Site Scripting (XSS)
-2. Code injection
-3. Data exposure through misconfigured error messages
-4. Insider threats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Lack of input sanitization
-2. Use of unsafe JavaScript libraries
-3. Exposing sensitive information in HTML comments or JavaScript
-4. Poor CSP (Content Security Policy) configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Unauthorized access or manipulation of client-side code
-2. Data leakage from insecure scripts
-3. Disruption of user experience due to compromised code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Use secure JavaScript libraries
-1. Implement strong Content Security Policies (CSP)
-3. Validate and sanitize user input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Regularly conduct vulnerability assessments (e.g., SAST/DAST tools)
-5. Minimize and obfuscate frontend code to reduce exposure</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>Gyroscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Signal spoofing
-2. Unauthorized access
-3. Malware injection
-4. Physical tampering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Weak encryption for communication
-2. Poor physical security
-3. Absence of anomaly detection
-4. No input validation mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Incorrect orientation data affecting system functionality
-2. Operational errors due to faulty measurements
-3. Unauthorized control compromising safety
-4. Downtime or system malfunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Secure communication protocols
-2. Firmware update processes</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Implementation of real-time anomaly detection
-4. Physical security measures
-5. Sensor data validation</t>
-  </si>
-  <si>
-    <t>A0054</t>
-  </si>
-  <si>
-    <t>Heart Rate Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Data interception (e.g., man-in-the-middle attack)
-2. Signal spoofing
-3. Malware injection
-4. Unauthorized access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Lack of encryption for transmitted data
-2. Inadequate input validation
-3. Poor physical protection
-4. Lack of anomaly detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exposure of sensitive health data
-2. Misleading readings causing improper medical decisions
-3. System downtime impacting real-time monitoring
-4. Unauthorized control of medical devices</t>
-  </si>
-  <si>
-    <t>1. Secure data transmission protocols</t>
-  </si>
-  <si>
-    <t>Ineffective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Routine firmware updates
-3. Physical security for devices
-4. Real-time anomaly detection
-5. Input validation mechanisms</t>
-  </si>
-  <si>
-    <t>A0055</t>
-  </si>
-  <si>
-    <t>Blood Oxygen Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Data interception (e.g., MITM attack)
-2. Signal spoofing
-3. Unauthorized firmware changes
-4. Malware targeting data processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Weak encryption for data transmission
-2. Inadequate firmware validation
-3. Poor physical protection
-4. No anomaly detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exposure of sensitive health data
-2. Misleading readings impacting health decisions
-3. Downtime causing gaps in real-time monitoring
-4. Unauthorized control of medical devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Use of secure communication protocols
-2. Regular firmware updates
-3. Physical security measures
-4. Implementation of real-time anomaly detection
-5. Validation mechanisms for data and firmware</t>
-  </si>
-  <si>
-    <t>No Additional Controls</t>
+    <t>2024-12-11</t>
   </si>
 </sst>
 </file>
@@ -3985,49 +3847,13 @@
         <f>IF(Z7="Inactive", "No", IF(Z7="Active", "Yes", ""))</f>
       </c>
     </row>
-    <row r="8" ht="57.2" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="133">
-        <v>2</v>
-      </c>
-      <c r="B8" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="134">
-        <v>2</v>
-      </c>
-      <c r="E8" s="134">
-        <v>3</v>
-      </c>
-      <c r="F8" s="134">
-        <v>3</v>
-      </c>
+    <row r="8" ht="57.2" customHeight="1" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G8" s="134">
         <f>IF(D8&amp;E8&amp;F8="","",IF(D8*E8*F8&lt;=9,"Low",(IF(D8*E8*F8&lt;=18,"Medium",(IF(D8*E8*F8&gt;18,"High",""))))))</f>
       </c>
-      <c r="H8" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="133" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="133" t="s">
-        <v>161</v>
-      </c>
       <c r="M8" s="133">
         <f>IF(L8="Effective", 1, IF(L8="Moderate", 2, IF(L8="Ineffective", 3, "")))</f>
       </c>
-      <c r="N8" s="133">
-        <v>4</v>
-      </c>
       <c r="O8" s="135">
         <f>IF(OR(ISBLANK(M8), ISBLANK(N8)), "", D8*E8*F8 * M8 * N8)</f>
       </c>
@@ -4037,30 +3863,12 @@
       <c r="Q8" s="135">
         <f>IF(P8="Low", "Priority-3", IF(P8="Medium", "Priority-2", IF(P8="High", "Priority-1", "")))</f>
       </c>
-      <c r="R8" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="S8" s="133" t="s">
-        <v>172</v>
-      </c>
-      <c r="T8" s="133">
-        <v>1</v>
-      </c>
-      <c r="U8" s="133">
-        <v>3</v>
-      </c>
       <c r="V8" s="133">
         <f>IF(OR(ISBLANK(T8), ISBLANK(U8)), "", D8 * E8 * F8 * T8 * U8)</f>
       </c>
       <c r="W8" s="133">
         <f>IF(OR(ISBLANK(T8), ISBLANK(U8)), "", IF(D8 * E8 * F8 * T8 * U8 &lt;= 36, "Low", IF(D8 * E8 * F8 * T8 * U8 &lt;= 108, "Medium", "High")))</f>
       </c>
-      <c r="X8" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y8" s="135" t="s">
-        <v>165</v>
-      </c>
       <c r="Z8" s="133">
         <f>IF(ISBLANK(U8), "", IF(U8&lt;=2, "Inactive", "Active"))</f>
       </c>
@@ -4068,49 +3876,13 @@
         <f>IF(Z8="Inactive", "No", IF(Z8="Active", "Yes", ""))</f>
       </c>
     </row>
-    <row r="9" ht="57.2" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="133">
-        <v>3</v>
-      </c>
-      <c r="B9" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="134">
-        <v>2</v>
-      </c>
-      <c r="E9" s="134">
-        <v>3</v>
-      </c>
-      <c r="F9" s="134">
-        <v>3</v>
-      </c>
+    <row r="9" ht="57.2" customHeight="1" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G9" s="134">
         <f>IF(D9&amp;E9&amp;F9="","",IF(D9*E9*F9&lt;=9,"Low",(IF(D9*E9*F9&lt;=18,"Medium",(IF(D9*E9*F9&gt;18,"High",""))))))</f>
       </c>
-      <c r="H9" s="133" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="133" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="133" t="s">
-        <v>179</v>
-      </c>
       <c r="M9" s="133">
         <f>IF(L9="Effective", 1, IF(L9="Moderate", 2, IF(L9="Ineffective", 3, "")))</f>
       </c>
-      <c r="N9" s="133">
-        <v>3</v>
-      </c>
       <c r="O9" s="135">
         <f>IF(OR(ISBLANK(M9), ISBLANK(N9)), "", D9*E9*F9 * M9 * N9)</f>
       </c>
@@ -4120,30 +3892,12 @@
       <c r="Q9" s="135">
         <f>IF(P9="Low", "Priority-3", IF(P9="Medium", "Priority-2", IF(P9="High", "Priority-1", "")))</f>
       </c>
-      <c r="R9" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="T9" s="133">
-        <v>1</v>
-      </c>
-      <c r="U9" s="133">
-        <v>2</v>
-      </c>
       <c r="V9" s="133">
         <f>IF(OR(ISBLANK(T9), ISBLANK(U9)), "", D9 * E9 * F9 * T9 * U9)</f>
       </c>
       <c r="W9" s="133">
         <f>IF(OR(ISBLANK(T9), ISBLANK(U9)), "", IF(D9 * E9 * F9 * T9 * U9 &lt;= 36, "Low", IF(D9 * E9 * F9 * T9 * U9 &lt;= 108, "Medium", "High")))</f>
       </c>
-      <c r="X9" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y9" s="135" t="s">
-        <v>165</v>
-      </c>
       <c r="Z9" s="133">
         <f>IF(ISBLANK(U9), "", IF(U9&lt;=2, "Inactive", "Active"))</f>
       </c>
@@ -4151,49 +3905,13 @@
         <f>IF(Z9="Inactive", "No", IF(Z9="Active", "Yes", ""))</f>
       </c>
     </row>
-    <row r="10" ht="57.2" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="133">
-        <v>4</v>
-      </c>
-      <c r="B10" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="134">
-        <v>3</v>
-      </c>
-      <c r="E10" s="134">
-        <v>3</v>
-      </c>
-      <c r="F10" s="134">
-        <v>3</v>
-      </c>
+    <row r="10" ht="57.2" customHeight="1" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G10" s="134">
         <f>IF(D10&amp;E10&amp;F10="","",IF(D10*E10*F10&lt;=9,"Low",(IF(D10*E10*F10&lt;=18,"Medium",(IF(D10*E10*F10&gt;18,"High",""))))))</f>
       </c>
-      <c r="H10" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="133" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="133" t="s">
-        <v>187</v>
-      </c>
       <c r="M10" s="133">
         <f>IF(L10="Effective", 1, IF(L10="Moderate", 2, IF(L10="Ineffective", 3, "")))</f>
       </c>
-      <c r="N10" s="133">
-        <v>3</v>
-      </c>
       <c r="O10" s="135">
         <f>IF(OR(ISBLANK(M10), ISBLANK(N10)), "", D10*E10*F10 * M10 * N10)</f>
       </c>
@@ -4203,30 +3921,12 @@
       <c r="Q10" s="135">
         <f>IF(P10="Low", "Priority-3", IF(P10="Medium", "Priority-2", IF(P10="High", "Priority-1", "")))</f>
       </c>
-      <c r="R10" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="S10" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="T10" s="133">
-        <v>1</v>
-      </c>
-      <c r="U10" s="133">
-        <v>2</v>
-      </c>
       <c r="V10" s="133">
         <f>IF(OR(ISBLANK(T10), ISBLANK(U10)), "", D10 * E10 * F10 * T10 * U10)</f>
       </c>
       <c r="W10" s="133">
         <f>IF(OR(ISBLANK(T10), ISBLANK(U10)), "", IF(D10 * E10 * F10 * T10 * U10 &lt;= 36, "Low", IF(D10 * E10 * F10 * T10 * U10 &lt;= 108, "Medium", "High")))</f>
       </c>
-      <c r="X10" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y10" s="135" t="s">
-        <v>165</v>
-      </c>
       <c r="Z10" s="133">
         <f>IF(ISBLANK(U10), "", IF(U10&lt;=2, "Inactive", "Active"))</f>
       </c>
@@ -4234,49 +3934,13 @@
         <f>IF(Z10="Inactive", "No", IF(Z10="Active", "Yes", ""))</f>
       </c>
     </row>
-    <row r="11" ht="57.2" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="133">
-        <v>5</v>
-      </c>
-      <c r="B11" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="134" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="134">
-        <v>3</v>
-      </c>
-      <c r="E11" s="134">
-        <v>3</v>
-      </c>
-      <c r="F11" s="134">
-        <v>3</v>
-      </c>
+    <row r="11" ht="57.2" customHeight="1" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G11" s="134">
         <f>IF(D11&amp;E11&amp;F11="","",IF(D11*E11*F11&lt;=9,"Low",(IF(D11*E11*F11&lt;=18,"Medium",(IF(D11*E11*F11&gt;18,"High",""))))))</f>
       </c>
-      <c r="H11" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="133" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" s="133" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="133" t="s">
-        <v>161</v>
-      </c>
       <c r="M11" s="133">
         <f>IF(L11="Effective", 1, IF(L11="Moderate", 2, IF(L11="Ineffective", 3, "")))</f>
       </c>
-      <c r="N11" s="133">
-        <v>3</v>
-      </c>
       <c r="O11" s="135">
         <f>IF(OR(ISBLANK(M11), ISBLANK(N11)), "", D11*E11*F11 * M11 * N11)</f>
       </c>
@@ -4286,29 +3950,11 @@
       <c r="Q11" s="135">
         <f>IF(P11="Low", "Priority-3", IF(P11="Medium", "Priority-2", IF(P11="High", "Priority-1", "")))</f>
       </c>
-      <c r="R11" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="S11" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="T11" s="133">
-        <v>1</v>
-      </c>
-      <c r="U11" s="133">
-        <v>2</v>
-      </c>
       <c r="V11" s="133">
         <f>IF(OR(ISBLANK(T11), ISBLANK(U11)), "", D11 * E11 * F11 * T11 * U11)</f>
       </c>
       <c r="W11" s="133">
         <f>IF(OR(ISBLANK(T11), ISBLANK(U11)), "", IF(D11 * E11 * F11 * T11 * U11 &lt;= 36, "Low", IF(D11 * E11 * F11 * T11 * U11 &lt;= 108, "Medium", "High")))</f>
-      </c>
-      <c r="X11" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y11" s="135" t="s">
-        <v>165</v>
       </c>
       <c r="Z11" s="133">
         <f>IF(ISBLANK(U11), "", IF(U11&lt;=2, "Inactive", "Active"))</f>
